--- a/main/Cases/Test1_time.xlsx
+++ b/main/Cases/Test1_time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.microsoftpersonalcontent.com/personal/119a6824fc18e16b/Documents/Documentos/projects/AGISTIN/T_04_06/agistin/main/Cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/119a6824fc18e16b/Documentos/projects/AGISTIN/T_04_06/agistin/main/Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{B53D8EAC-DAFF-4D1F-984C-9B22EAF07FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CEB2E74-C02A-48CC-A499-B562C6528A8B}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{B53D8EAC-DAFF-4D1F-984C-9B22EAF07FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5CD842-0ECD-4F5A-B7FD-34859E90D67C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -35,114 +35,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Pmax</t>
-  </si>
-  <si>
-    <t>W0</t>
-  </si>
-  <si>
-    <t>Wmin</t>
-  </si>
-  <si>
-    <t>Wmax</t>
-  </si>
-  <si>
-    <t>zmin</t>
-  </si>
-  <si>
-    <t>zmax</t>
-  </si>
-  <si>
-    <t>Reservoir0</t>
-  </si>
-  <si>
-    <t>Reservoir1</t>
-  </si>
-  <si>
-    <t>Pipe1</t>
-  </si>
-  <si>
-    <t>H0</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Qmax</t>
-  </si>
-  <si>
     <t>HySw1</t>
   </si>
   <si>
-    <t>Pump1</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Qnom</t>
-  </si>
-  <si>
-    <t>n_n</t>
-  </si>
-  <si>
-    <t>eff</t>
-  </si>
-  <si>
-    <t>PumpNew</t>
-  </si>
-  <si>
-    <t>Turb1</t>
-  </si>
-  <si>
-    <t>R1_OUT</t>
-  </si>
-  <si>
-    <t>EB1</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>Pinst</t>
-  </si>
-  <si>
-    <t>MainGrid</t>
-  </si>
-  <si>
     <t>CONNECTION</t>
   </si>
   <si>
-    <t>z,Pipe1,zlow;</t>
-  </si>
-  <si>
-    <t>z,Pipe1,zhigh;</t>
-  </si>
-  <si>
-    <t>P,EB1,P;Qout,HySw1,Qin0;H,Pipe1,H;Qin,Reservoir0,Q;</t>
-  </si>
-  <si>
-    <t>P,EB1,P;</t>
-  </si>
-  <si>
-    <t>Q,Reservoir1,Q;</t>
-  </si>
-  <si>
     <t>Qout,Pipe1,Q;</t>
   </si>
   <si>
-    <t>P,EB1,P;Qin,HySw1,Qin1;H,Pipe1,H;Qout,Reservoir0,Q;</t>
-  </si>
-  <si>
-    <t>Qin,Reservoir1,Q;</t>
+    <t>MainGrid_P</t>
+  </si>
+  <si>
+    <t>Reservoir0_Q</t>
+  </si>
+  <si>
+    <t>Reservoir0_W</t>
+  </si>
+  <si>
+    <t>Reservoir1_Q</t>
+  </si>
+  <si>
+    <t>Reservoir1_W</t>
+  </si>
+  <si>
+    <t>Pipe1_H</t>
+  </si>
+  <si>
+    <t>Pipe1_Q</t>
+  </si>
+  <si>
+    <t>Pipe1_zlow</t>
+  </si>
+  <si>
+    <t>Pipe1_zhigh</t>
+  </si>
+  <si>
+    <t>Pipe1_H0</t>
+  </si>
+  <si>
+    <t>Pump1_Pe</t>
+  </si>
+  <si>
+    <t>Pump1_H</t>
+  </si>
+  <si>
+    <t>Pump1_Q</t>
+  </si>
+  <si>
+    <t>Pump1_n</t>
+  </si>
+  <si>
+    <t>PumpNew_Pe</t>
+  </si>
+  <si>
+    <t>PumpNew_H</t>
+  </si>
+  <si>
+    <t>PumpNew_Q</t>
+  </si>
+  <si>
+    <t>Turb1_Pe</t>
+  </si>
+  <si>
+    <t>Turb1_H</t>
+  </si>
+  <si>
+    <t>Turb1_Q</t>
+  </si>
+  <si>
+    <t>PV1_forecast</t>
+  </si>
+  <si>
+    <t>R1out_Q</t>
   </si>
 </sst>
 </file>
@@ -495,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDBFD1F-93C1-4DFD-8CBE-DA36DEB8F281}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,26 +476,15 @@
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +494,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,32 +505,36 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -593,84 +556,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C490DD-8CD7-4C0D-B512-9FEE48EF38C1}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>420</v>
-      </c>
-      <c r="F2">
-        <v>480</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>450</v>
-      </c>
-      <c r="F3">
-        <v>510</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C141702-7DB4-4A5D-9382-EF90CCACDFA2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +675,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -705,24 +687,92 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>450</v>
       </c>
       <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
+        <v>480</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>480</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>450</v>
+      </c>
+      <c r="D4">
+        <v>480</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>450</v>
+      </c>
+      <c r="D5">
+        <v>480</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>450</v>
+      </c>
+      <c r="D6">
+        <v>480</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -748,15 +798,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +816,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FF505B-0D98-41A1-A611-0C6A30A0D663}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,9 +827,9 @@
     <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -788,51 +838,77 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1000000</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
         <v>1450</v>
       </c>
-      <c r="H2">
-        <v>0.9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +918,99 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA7E10F-DDD8-4828-A7FA-8C15A70E4C6C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113EB9F0-BDD3-437C-A245-B0CFD47FB3D8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,24 +1020,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
+      <c r="A2" s="1">
+        <v>-1000</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -880,86 +1089,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113EB9F0-BDD3-437C-A245-B0CFD47FB3D8}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>0.85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34E40F0-B7E1-4056-8BFB-2AABAC8389B5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D542D-EEC1-4E22-A5B2-39011ADAE04E}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,15 +1104,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D542D-EEC1-4E22-A5B2-39011ADAE04E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/main/Cases/Test1_time.xlsx
+++ b/main/Cases/Test1_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/119a6824fc18e16b/Documentos/projects/AGISTIN/T_04_06/agistin/main/Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{B53D8EAC-DAFF-4D1F-984C-9B22EAF07FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5CD842-0ECD-4F5A-B7FD-34859E90D67C}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{B53D8EAC-DAFF-4D1F-984C-9B22EAF07FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC32903B-84E0-4F2A-B852-E5837FAC9A30}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="10" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Source" sheetId="9" r:id="rId8"/>
     <sheet name="EB" sheetId="2" r:id="rId9"/>
     <sheet name="SolarPV" sheetId="10" r:id="rId10"/>
-    <sheet name="Switch" sheetId="11" r:id="rId11"/>
+    <sheet name="Battery" sheetId="12" r:id="rId11"/>
+    <sheet name="Switch" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>R1out_Q</t>
+  </si>
+  <si>
+    <t>Battery1_E</t>
+  </si>
+  <si>
+    <t>Battery1_P</t>
   </si>
 </sst>
 </file>
@@ -543,6 +550,69 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D7F8B-BC2D-4F13-9ACA-16D483F91156}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7000</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7000</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7000</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7000</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7000</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F4E95F-4697-4DBE-BA00-3D4090DC0192}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -559,7 +629,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34E40F0-B7E1-4056-8BFB-2AABAC8389B5}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
